--- a/biology/Biologie cellulaire et moléculaire/John_Tileston_Edsall/John_Tileston_Edsall.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/John_Tileston_Edsall/John_Tileston_Edsall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Tileston Edsall (né le 3 novembre 1902 à Philadelphie, États-Unis - mort le 12 juin 2002) est un scientifique américain. Coéditeur de la revue Advances in Protein Chemistry, il a été professeur à l'université Harvard. Pionnier dans l'étude des protéines, il a contribué de manière significative à la compréhension des interactions hydrophobes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Philadelphie en Pennsylvanie, aux États-Unis, le 3 novembre 1902, la famille de John Edsall déménage à Boston alors qu'il est âgé de 10 ans. Diplômé en chimie de l'université Harvard, il y fréquente notamment le physicien Robert Oppenheimer.
 Le 1er mai 1929, il se marie à Scarsdale, New York, avec Margaret Dunham (1902 - 1987). Le couple vivra principalement à Cambridge (Massachusetts) et aura trois fils : Lawrence (1930-1978), David (1933-) et Nicholas (1936-).
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Tileston Edsall » (voir la liste des auteurs).</t>
         </is>
